--- a/InputData/endo-learn/GBEtPR/Grid Battery Energy to Power Ratio.xlsx
+++ b/InputData/endo-learn/GBEtPR/Grid Battery Energy to Power Ratio.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.3.3-us-wipB\InputData\endo-learn\HpDoGBU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\endo-learn\GBEtPR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
   <si>
     <t>Source:</t>
   </si>
@@ -122,9 +122,6 @@
     <t>About</t>
   </si>
   <si>
-    <t>(in MW or GW) to the energy they store (in MWh or GWh).</t>
-  </si>
-  <si>
     <t>GBEtPR Grid Battery Energy to Power Ratio</t>
   </si>
   <si>
@@ -134,7 +131,13 @@
     <t>Energy to Power Ratio</t>
   </si>
   <si>
-    <t>Grid Batteries</t>
+    <t>Grid Batteries (hours)</t>
+  </si>
+  <si>
+    <t>(in MW or GW) to the energy they store (in MWh or GWh), where the</t>
+  </si>
+  <si>
+    <t>units are in hours.</t>
   </si>
 </sst>
 </file>
@@ -462,12 +465,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -494,6 +491,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -941,22 +944,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="2" max="2" width="46.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.3984375" customWidth="1"/>
+    <col min="2" max="2" width="46.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -964,34 +969,39 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="40">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B4" s="38">
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="41" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B6" s="39" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1008,28 +1018,28 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="40.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="16" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="12.7109375" customWidth="1"/>
-    <col min="28" max="30" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.265625" customWidth="1"/>
+    <col min="2" max="2" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="16" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="27" width="12.73046875" customWidth="1"/>
+    <col min="28" max="30" width="11.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="1:30" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" ht="23.25" x14ac:dyDescent="0.7">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
@@ -1121,7 +1131,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>3</v>
       </c>
@@ -1213,7 +1223,7 @@
         <v>223.71053661763759</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
@@ -1305,7 +1315,7 @@
         <v>180.40979354233912</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
         <v>5</v>
       </c>
@@ -1426,7 +1436,7 @@
         <v>404.12033015997667</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A15" s="9" t="s">
         <v>6</v>
       </c>
@@ -1518,7 +1528,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
         <v>3</v>
       </c>
@@ -1610,7 +1620,7 @@
         <v>559.27634154409395</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A17" s="12" t="s">
         <v>4</v>
       </c>
@@ -1702,7 +1712,7 @@
         <v>414.94252514737997</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1823,7 +1833,7 @@
         <v>974.21886669147398</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.45">
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
@@ -1854,7 +1864,7 @@
       <c r="AC19" s="15"/>
       <c r="AD19" s="15"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.45">
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -1885,17 +1895,17 @@
       <c r="AC20" s="15"/>
       <c r="AD20" s="15"/>
     </row>
-    <row r="21" spans="1:30" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:30" ht="23.25" x14ac:dyDescent="0.7">
       <c r="A21" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A22" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>2</v>
       </c>
@@ -1967,7 +1977,7 @@
       <c r="AC23" s="17"/>
       <c r="AD23" s="17"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -2039,7 +2049,7 @@
       <c r="AC24" s="19"/>
       <c r="AD24" s="19"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -2111,7 +2121,7 @@
       <c r="AC25" s="19"/>
       <c r="AD25" s="19"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -2190,7 +2200,7 @@
       <c r="AC26" s="19"/>
       <c r="AD26" s="19"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.45">
       <c r="U27" s="19"/>
       <c r="V27" s="19"/>
       <c r="W27" s="19"/>
@@ -2202,7 +2212,7 @@
       <c r="AC27" s="19"/>
       <c r="AD27" s="19"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A28" s="16" t="s">
         <v>12</v>
       </c>
@@ -2217,7 +2227,7 @@
       <c r="AC28" s="19"/>
       <c r="AD28" s="19"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
         <v>6</v>
       </c>
@@ -2289,7 +2299,7 @@
       <c r="AC29" s="17"/>
       <c r="AD29" s="17"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A30" s="21" t="s">
         <v>5</v>
       </c>
@@ -2375,118 +2385,118 @@
       <c r="AC30" s="19"/>
       <c r="AD30" s="19"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.45">
       <c r="B31" s="20"/>
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
     </row>
-    <row r="34" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="23.25" x14ac:dyDescent="0.7">
       <c r="A34" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="22" t="s">
+    <row r="37" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C37" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="23"/>
-      <c r="E37" s="22" t="s">
+      <c r="D37" s="42"/>
+      <c r="E37" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="23"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="24" t="s">
+      <c r="F37" s="42"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A38" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="25">
+      <c r="B38" s="23">
         <v>2017</v>
       </c>
-      <c r="C38" s="24" t="s">
+      <c r="C38" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="26" t="s">
+      <c r="D38" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="24" t="s">
+      <c r="E38" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F38" s="26" t="s">
+      <c r="F38" s="24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="27"/>
-      <c r="C39" s="28">
+      <c r="B39" s="25"/>
+      <c r="C39" s="26">
         <f>0.44*C41</f>
         <v>44</v>
       </c>
-      <c r="D39" s="29">
+      <c r="D39" s="27">
         <f>0.44*D41</f>
         <v>79.64</v>
       </c>
-      <c r="E39" s="28">
+      <c r="E39" s="26">
         <f>0.44*E41</f>
         <v>73.48</v>
       </c>
-      <c r="F39" s="29">
+      <c r="F39" s="27">
         <f>0.44*F41</f>
         <v>185.24</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="30" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A40" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="31"/>
-      <c r="C40" s="32">
+      <c r="B40" s="29"/>
+      <c r="C40" s="30">
         <f>C41-C39</f>
         <v>56</v>
       </c>
-      <c r="D40" s="33">
+      <c r="D40" s="31">
         <f t="shared" ref="D40:F40" si="4">D41-D39</f>
         <v>101.36</v>
       </c>
-      <c r="E40" s="32">
+      <c r="E40" s="30">
         <f t="shared" si="4"/>
         <v>93.52</v>
       </c>
-      <c r="F40" s="33">
+      <c r="F40" s="31">
         <f t="shared" si="4"/>
         <v>235.76</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="34" t="s">
+    <row r="41" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A41" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="35">
+      <c r="B41" s="33">
         <v>11</v>
       </c>
-      <c r="C41" s="34">
+      <c r="C41" s="32">
         <v>100</v>
       </c>
-      <c r="D41" s="36">
+      <c r="D41" s="34">
         <v>181</v>
       </c>
-      <c r="E41" s="34">
+      <c r="E41" s="32">
         <v>167</v>
       </c>
-      <c r="F41" s="36">
+      <c r="F41" s="34">
         <v>421</v>
       </c>
     </row>
@@ -2561,12 +2571,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="1" max="1" width="37.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B1" s="1">
         <v>2016</v>
       </c>
@@ -2613,7 +2623,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -2678,7 +2688,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -2743,28 +2753,28 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A6" s="36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A7" s="36" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A8" s="36" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A10" s="40" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="39">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A11" s="37">
         <f>AVERAGE(B2:P3)</f>
         <v>2.3999999999999986</v>
       </c>
@@ -2781,24 +2791,26 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="42" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B1" s="40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="37">
+        <v>33</v>
+      </c>
+      <c r="B2" s="35">
         <f>Calculations!A11</f>
         <v>2.3999999999999986</v>
       </c>

--- a/InputData/endo-learn/GBEtPR/Grid Battery Energy to Power Ratio.xlsx
+++ b/InputData/endo-learn/GBEtPR/Grid Battery Energy to Power Ratio.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\All_states_RMI\CA\endo-learn\GBEtPR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\endo-learn\GBEtPR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C24CF76-1C8F-4DB7-8FFC-E20D8277E5B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A17776-33E1-4D25-B0A0-2CE257375687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Source:</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>Like NREL, we take a 4 hour duration storage system as our default.</t>
-  </si>
-  <si>
-    <t>California</t>
   </si>
 </sst>
 </file>
@@ -84,7 +81,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -142,7 +139,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -154,8 +151,7 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,24 +439,18 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" customWidth="1"/>
-    <col min="2" max="2" width="46.85546875" customWidth="1"/>
+    <col min="1" max="1" width="40.7265625" customWidth="1"/>
+    <col min="2" max="2" width="46.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="8">
-        <v>44538</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,59 +458,59 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B4" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" s="5"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B28" s="6"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B30" s="2"/>
     </row>
   </sheetData>
@@ -540,18 +530,18 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>

--- a/InputData/endo-learn/GBEtPR/Grid Battery Energy to Power Ratio.xlsx
+++ b/InputData/endo-learn/GBEtPR/Grid Battery Energy to Power Ratio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\All_states_RMI\CA\endo-learn\GBEtPR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaggarwal/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/CA/endo-learn/GBEtPR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C24CF76-1C8F-4DB7-8FFC-E20D8277E5B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E1A7202-0934-5948-B78F-73F3701D9023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -443,13 +443,13 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" customWidth="1"/>
-    <col min="2" max="2" width="46.85546875" customWidth="1"/>
+    <col min="1" max="1" width="40.6640625" customWidth="1"/>
+    <col min="2" max="2" width="46.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -457,10 +457,10 @@
         <v>13</v>
       </c>
       <c r="C1" s="8">
-        <v>44538</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,59 +468,59 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="5"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28" s="6"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
     </row>
   </sheetData>
@@ -540,18 +540,18 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>

--- a/InputData/endo-learn/GBEtPR/Grid Battery Energy to Power Ratio.xlsx
+++ b/InputData/endo-learn/GBEtPR/Grid Battery Energy to Power Ratio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\endo-learn\GBEtPR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaggarwal/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/CA/endo-learn/GBEtPR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A17776-33E1-4D25-B0A0-2CE257375687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E1A7202-0934-5948-B78F-73F3701D9023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Source:</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Like NREL, we take a 4 hour duration storage system as our default.</t>
+  </si>
+  <si>
+    <t>California</t>
   </si>
 </sst>
 </file>
@@ -81,7 +84,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -139,7 +142,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -151,7 +154,8 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,18 +443,24 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.7265625" customWidth="1"/>
-    <col min="2" max="2" width="46.81640625" customWidth="1"/>
+    <col min="1" max="1" width="40.6640625" customWidth="1"/>
+    <col min="2" max="2" width="46.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="8">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,59 +468,59 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="5"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28" s="6"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
     </row>
   </sheetData>
@@ -530,18 +540,18 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>

--- a/InputData/endo-learn/GBEtPR/Grid Battery Energy to Power Ratio.xlsx
+++ b/InputData/endo-learn/GBEtPR/Grid Battery Energy to Power Ratio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaggarwal/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/CA/endo-learn/GBEtPR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\endo-learn\GBEtPR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E1A7202-0934-5948-B78F-73F3701D9023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A17776-33E1-4D25-B0A0-2CE257375687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Source:</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>Like NREL, we take a 4 hour duration storage system as our default.</t>
-  </si>
-  <si>
-    <t>California</t>
   </si>
 </sst>
 </file>
@@ -84,7 +81,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -142,7 +139,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -154,8 +151,7 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,24 +439,18 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.6640625" customWidth="1"/>
-    <col min="2" max="2" width="46.83203125" customWidth="1"/>
+    <col min="1" max="1" width="40.7265625" customWidth="1"/>
+    <col min="2" max="2" width="46.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="8">
-        <v>44631</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,59 +458,59 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B4" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" s="5"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B28" s="6"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B30" s="2"/>
     </row>
   </sheetData>
@@ -540,18 +530,18 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
